--- a/ADCVD_SCRIPT/input_data/script/gui_map.xlsx
+++ b/ADCVD_SCRIPT/input_data/script/gui_map.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{353EF654-959F-4CE1-8CA2-176A5D9FFAFE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB69A475-CD37-4E1E-AA24-C4CE86C76E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7380" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1056" windowWidth="21576" windowHeight="7380" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guiMap" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="364">
   <si>
     <t>locator_type</t>
   </si>
@@ -28,9 +28,6 @@
     <t>locator_value</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>user name</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>Segments</t>
   </si>
   <si>
-    <t>//div[contains(text(), 'New')]</t>
-  </si>
-  <si>
     <t>New Case</t>
   </si>
   <si>
@@ -178,24 +172,9 @@
     <t>nextButton</t>
   </si>
   <si>
-    <t>//button/span[contains(text(), 'Next')]</t>
-  </si>
-  <si>
     <t>recTypeSelfInitiated</t>
   </si>
   <si>
-    <t>//span[contains(text(), 'ADCVD Case')]/ancestor::label[1]/following-sibling::input[1]</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'CBP Case Number')]/ancestor::label[1]/following-sibling::input[1]</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'Product')]/ancestor::label[1]/following-sibling::input[1]</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'Product Short Name')]/ancestor::label[1]/following-sibling::input[1]</t>
-  </si>
-  <si>
     <t>inputadcvdCase</t>
   </si>
   <si>
@@ -280,15 +259,6 @@
     <t>selectCountryItem</t>
   </si>
   <si>
-    <t>//span[contains(text(), 'Commodity')]/ancestor::span[1]/following-sibling::div[1]/div/div/div/a</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'ADCVD Case Type')]/ancestor::span[1]/following-sibling::div[1]/div/div/div/a</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'Country')]/ancestor::span[1]/following-sibling::div[1]/div/div/div/a</t>
-  </si>
-  <si>
     <t>//ul/li/a[contains(text(), '~val~')]</t>
   </si>
   <si>
@@ -364,9 +334,6 @@
     <t>//span[text() = 'Lotus Notes History Data']/ancestor::label[1]/following-sibling::textarea[1]</t>
   </si>
   <si>
-    <t>//th[contains(text(), 'Petition Number')]//ancestor::thead[1]/following-sibling::tbody[1]/tr/th//a</t>
-  </si>
-  <si>
     <t>New Petition</t>
   </si>
   <si>
@@ -382,9 +349,6 @@
     <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//span[contains(text(), 'Path Key Fields') or contains(text(), 'Task Completion')]//ancestor::div[1]//span[contains(text(), '~val~')]/ancestor::div[1]/following-sibling::div[1]/span/span</t>
   </si>
   <si>
-    <t>//div/ul//li//span[contains(text(), 'Investigations')]</t>
-  </si>
-  <si>
     <t>Investigations link</t>
   </si>
   <si>
@@ -427,18 +391,12 @@
     <t>//th[contains(text(), 'Investigation Outcome')]/ancestor::table[1]//tbody[1]/tr/th//a[contains(text(), '--I-')]</t>
   </si>
   <si>
-    <t>//li/a/span[contains(text(), 'ADCVD Orders')]</t>
-  </si>
-  <si>
     <t>linkAdcvdOrder</t>
   </si>
   <si>
     <t>link ADCVD Order</t>
   </si>
   <si>
-    <t>//li/a/div[contains(text(), 'New')]</t>
-  </si>
-  <si>
     <t>New order button</t>
   </si>
   <si>
@@ -526,9 +484,6 @@
     <t>Segment type</t>
   </si>
   <si>
-    <t>//nav/ul/li/a/span[contains(text(), 'Segments')]</t>
-  </si>
-  <si>
     <t>//ul/li/a/div[text()='New']</t>
   </si>
   <si>
@@ -556,18 +511,12 @@
     <t>newCreatedOrder</t>
   </si>
   <si>
-    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//span[contains(text(), 'Record Type')]//following-sibling::div/div/div/div/span[contains(text(), '~val~')]</t>
-  </si>
-  <si>
     <t>Newly created Segment</t>
   </si>
   <si>
     <t>newCreatedSegment</t>
   </si>
   <si>
-    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//span//ancestor::div[1]//span[text() = 'Segment Number']/ancestor::div[1]/following-sibling::div[1]/span/span</t>
-  </si>
-  <si>
     <t>cancel order button</t>
   </si>
   <si>
@@ -580,9 +529,6 @@
     <t>//nav/ul/li/a/span[contains(text(), 'Petitions')]</t>
   </si>
   <si>
-    <t>//nav/ul/li/a/span[contains(text(), 'ADCVD Cases')]</t>
-  </si>
-  <si>
     <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//ul/li/a/div[text()='New']</t>
   </si>
   <si>
@@ -758,6 +704,414 @@
   </si>
   <si>
     <t>genericSegmentDate</t>
+  </si>
+  <si>
+    <t>//a/span[text()='ADCVD Cases']</t>
+  </si>
+  <si>
+    <t>//input[@title='Search Investigations']</t>
+  </si>
+  <si>
+    <t>alignTo</t>
+  </si>
+  <si>
+    <t>//span[text()='AD Investigation Aligned To']/ancestor::div[1]/following-sibling::div[1]//button</t>
+  </si>
+  <si>
+    <t>editAlignTo</t>
+  </si>
+  <si>
+    <t>edit Button of align to</t>
+  </si>
+  <si>
+    <t>align to</t>
+  </si>
+  <si>
+    <t>//div[@title='~val~']</t>
+  </si>
+  <si>
+    <t>saveInvestigation</t>
+  </si>
+  <si>
+    <t>itemfromalignTo</t>
+  </si>
+  <si>
+    <t>item from align to</t>
+  </si>
+  <si>
+    <t>save investigation</t>
+  </si>
+  <si>
+    <t>createdCase</t>
+  </si>
+  <si>
+    <t>created case</t>
+  </si>
+  <si>
+    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//th[contains(text(), 'Petition Number')]//ancestor::thead[1]/following-sibling::tbody[1]/tr/th//a</t>
+  </si>
+  <si>
+    <t>linkedADText</t>
+  </si>
+  <si>
+    <t>//span[text()='AD Investigation Aligned To']/ancestor::div[1]/following-sibling::div[1]//a[contains(text(), '~val~')]</t>
+  </si>
+  <si>
+    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//div[contains(text(), 'New')]</t>
+  </si>
+  <si>
+    <t>Object Link</t>
+  </si>
+  <si>
+    <t>objectMenuLink</t>
+  </si>
+  <si>
+    <t>//a/span[text() = '~val~']</t>
+  </si>
+  <si>
+    <t>newLitigationButton</t>
+  </si>
+  <si>
+    <t>new Litigation button</t>
+  </si>
+  <si>
+    <t>typeOfLitigationRadion</t>
+  </si>
+  <si>
+    <t>radio button litigation type</t>
+  </si>
+  <si>
+    <t>Input Litigation date</t>
+  </si>
+  <si>
+    <t>inputLitigationDate</t>
+  </si>
+  <si>
+    <t>inputLitigationText</t>
+  </si>
+  <si>
+    <t>Input Litigation Text</t>
+  </si>
+  <si>
+    <t>petition field on Litigation</t>
+  </si>
+  <si>
+    <t>petition item on Litigation</t>
+  </si>
+  <si>
+    <t>petitionsItemOnLitigation</t>
+  </si>
+  <si>
+    <t>petitionsFieldOnLitigation</t>
+  </si>
+  <si>
+    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//span[contains (text(), 'Record Type')]/following-sibling::div[1]//span[contains(text(), '~val~')]</t>
+  </si>
+  <si>
+    <t>created litigation</t>
+  </si>
+  <si>
+    <t>createdLitigation</t>
+  </si>
+  <si>
+    <t>Generic litigation field</t>
+  </si>
+  <si>
+    <t>genericLitigationField</t>
+  </si>
+  <si>
+    <t>//div[@class='forceChangeRecordTypeFooter']//button/span[contains(text(), 'Next')]</t>
+  </si>
+  <si>
+    <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//span[text() = '~val~']/ancestor::label[1]/following-sibling::input[1]</t>
+  </si>
+  <si>
+    <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//input[@title = 'Search Petitions']</t>
+  </si>
+  <si>
+    <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//div[@class='listContent']/ul/li[1]</t>
+  </si>
+  <si>
+    <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//span[contains(text(), '~val~')]/ancestor::label[1]/following-sibling::div[1]/input</t>
+  </si>
+  <si>
+    <t>ADInvestigationAlignedToDiv</t>
+  </si>
+  <si>
+    <t>AD Investigation Aligned To div</t>
+  </si>
+  <si>
+    <t>//span[text()='AD Investigation Aligned To']/ancestor::div[2]</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Generic investigation link</t>
+  </si>
+  <si>
+    <t>genericInvestigationLink</t>
+  </si>
+  <si>
+    <t>genericInvestigationFieldDiv</t>
+  </si>
+  <si>
+    <t>Petition Outcome</t>
+  </si>
+  <si>
+    <t>Petition Outcome Item</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Petition Outcome')]/ancestor::span[1]/following-sibling::div[1]/div/div/div/a</t>
+  </si>
+  <si>
+    <t>selectPetitionOutcome</t>
+  </si>
+  <si>
+    <t>selectPetitionOutcomeItem</t>
+  </si>
+  <si>
+    <t>save edited petition</t>
+  </si>
+  <si>
+    <t>saveEditedPetition</t>
+  </si>
+  <si>
+    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//div/ul//li//span[contains(text(), 'Investigations')]</t>
+  </si>
+  <si>
+    <t>linkFRNotice</t>
+  </si>
+  <si>
+    <t>FR Notice link</t>
+  </si>
+  <si>
+    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//div/ul//li//span[contains(text(), 'FR Notices')]</t>
+  </si>
+  <si>
+    <t>new FR button</t>
+  </si>
+  <si>
+    <t>FR Type</t>
+  </si>
+  <si>
+    <t>FR Type Item</t>
+  </si>
+  <si>
+    <t>frType</t>
+  </si>
+  <si>
+    <t>frTypeItem</t>
+  </si>
+  <si>
+    <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//span[contains(text(), 'Type')]/ancestor::span[1]/following-sibling::div[1]/div/div/div/a</t>
+  </si>
+  <si>
+    <t>frDate</t>
+  </si>
+  <si>
+    <t>FR notice date</t>
+  </si>
+  <si>
+    <t>frText</t>
+  </si>
+  <si>
+    <t>FR notice text fileds</t>
+  </si>
+  <si>
+    <t>saveFRButton</t>
+  </si>
+  <si>
+    <t>Save FR button</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'FR-')]</t>
+  </si>
+  <si>
+    <t>craetedFR</t>
+  </si>
+  <si>
+    <t>Created FR</t>
+  </si>
+  <si>
+    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//span//ancestor::div[1]//span[text() = '~val~']/ancestor::div[1]/following-sibling::div[1]/span/div/a</t>
+  </si>
+  <si>
+    <t>edit Button petition outcome</t>
+  </si>
+  <si>
+    <t>editPetitionOutCome</t>
+  </si>
+  <si>
+    <t>//span[text()='Petition Outcome']/ancestor::div[1]/following-sibling::div[1]//button</t>
+  </si>
+  <si>
+    <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//span[text() ='~val~']/ancestor::label[1]/following-sibling::input[1]</t>
+  </si>
+  <si>
+    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//span//ancestor::div[1]//span[text() = '~val~']/ancestor::div[2]</t>
+  </si>
+  <si>
+    <t>//a/span[text()='ADCVD Orders']</t>
+  </si>
+  <si>
+    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//li/a/div[contains(text(), 'New')]</t>
+  </si>
+  <si>
+    <t>//a/span[text()='Segments']</t>
+  </si>
+  <si>
+    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//span[text()='Administrative Review Aligned To']/ancestor::div[1]/following-sibling::div[1]//button</t>
+  </si>
+  <si>
+    <t>nsr edit Button of align to ar</t>
+  </si>
+  <si>
+    <t>editAlignToAr</t>
+  </si>
+  <si>
+    <t>alignToAr</t>
+  </si>
+  <si>
+    <t>itemfromalignToAr</t>
+  </si>
+  <si>
+    <t>align to Ar</t>
+  </si>
+  <si>
+    <t>item from align to Ar</t>
+  </si>
+  <si>
+    <t>//input[@title='Search Segments']</t>
+  </si>
+  <si>
+    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//span[text()='Administrative Review Aligned To']/ancestor::div[2]</t>
+  </si>
+  <si>
+    <t>editAlignToArDiv</t>
+  </si>
+  <si>
+    <t>saveEditedSegment</t>
+  </si>
+  <si>
+    <t>Save edited segment</t>
+  </si>
+  <si>
+    <t>aligned ar segment</t>
+  </si>
+  <si>
+    <t>alignedSrSegment</t>
+  </si>
+  <si>
+    <t>//div[@class = 'windowViewMode-normal oneContent active lafPageHost']//a[text() = '~val~']</t>
+  </si>
+  <si>
+    <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//span[contains(text(), 'ADCVD Case')]/ancestor::label[1]/following-sibling::input[1]</t>
+  </si>
+  <si>
+    <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//span[contains(text(), 'CBP Case Number')]/ancestor::label[1]/following-sibling::input[1]</t>
+  </si>
+  <si>
+    <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//span[contains(text(), 'Product Short Name')]/ancestor::label[1]/following-sibling::input[1]</t>
+  </si>
+  <si>
+    <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//span[contains(text(), 'Commodity')]/ancestor::span[1]/following-sibling::div[1]/div/div/div/a</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-footer slds-modal__footer']/div/button/span[(contains(text(), 'Cancel'))]</t>
+  </si>
+  <si>
+    <t>CancelCaseButton</t>
+  </si>
+  <si>
+    <t>Cancel Case button</t>
+  </si>
+  <si>
+    <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//span[contains(text(), 'ADCVD Case Type')]/ancestor::span[1]/following-sibling::div[1]/div/div/div/a</t>
+  </si>
+  <si>
+    <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//span[contains(text(), 'Country')]/ancestor::span[1]/following-sibling::div[1]/div/div/div/a</t>
+  </si>
+  <si>
+    <t>//div[@class='footer active']//button/span[text()='Save']</t>
+  </si>
+  <si>
+    <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//span[text()= 'Product']/ancestor::label[1]/following-sibling::input[1]</t>
+  </si>
+  <si>
+    <t>LitigationObjectLink</t>
+  </si>
+  <si>
+    <t>ADCVD Litigation</t>
+  </si>
+  <si>
+    <t>//a/span[@class='slds-truncate' and text()='Litigation']</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), '~val~')]/ancestor::td[1]</t>
+  </si>
+  <si>
+    <t>Order, Susp, &amp; Litigation</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Order, Susp, &amp; Litigation')]</t>
+  </si>
+  <si>
+    <t>linkOrderSuspLitigation</t>
+  </si>
+  <si>
+    <t>//div[@class='flexipageComponent']//span[contains(text(), 'ADCVD Orders')]/ancestor::header/following-sibling::div//a/div[@title='New']</t>
+  </si>
+  <si>
+    <t>linkNewOrderSuspLitigation</t>
+  </si>
+  <si>
+    <t>New Order, Susp, &amp; Litigation</t>
+  </si>
+  <si>
+    <t>//span[@class = 'title' and text()='Segments']</t>
+  </si>
+  <si>
+    <t>New Segment from Order</t>
+  </si>
+  <si>
+    <t>//div[@class='flexipageComponent']//span[contains(text(), 'Segments')]/ancestor::header/following-sibling::div//a/div[@title='New']</t>
+  </si>
+  <si>
+    <t>NewButtonSegmentFromOrder</t>
+  </si>
+  <si>
+    <t>LinkSegmentFromOrder</t>
+  </si>
+  <si>
+    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//a[contains(text(), '~val~')]</t>
+  </si>
+  <si>
+    <t>order from segment</t>
+  </si>
+  <si>
+    <t>orderFromSegment</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), '~val~')]/ancestor::td[1]/ancestor::tr/th//a</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Order FR Needed')]/ancestor::tr/th//a</t>
+  </si>
+  <si>
+    <t>createdNewOrderLink</t>
+  </si>
+  <si>
+    <t>created newOrder link</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'View All')]</t>
+  </si>
+  <si>
+    <t>SegmentsViewAll</t>
+  </si>
+  <si>
+    <t>segmentViewAll</t>
   </si>
 </sst>
 </file>
@@ -813,7 +1167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -821,6 +1175,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,14 +1213,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:E88" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E88" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:E133" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E133" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F64F45A6-3645-44FE-9479-6241357AB038}" name="field_name"/>
     <tableColumn id="2" xr3:uid="{C2DBC26B-6F8C-4783-ACA4-D8FD50DC9F57}" name="field_tag"/>
     <tableColumn id="3" xr3:uid="{C0187C03-8A32-45C6-B7DE-11B1D79A9A16}" name="locator_type"/>
     <tableColumn id="4" xr3:uid="{6C7265A4-0B5F-4E84-8068-60FB0C4EBB03}" name="locator_value"/>
-    <tableColumn id="5" xr3:uid="{DDC74BAF-CCF0-4DD7-A29A-5D72BAC50403}" name="description"/>
+    <tableColumn id="5" xr3:uid="{DDC74BAF-CCF0-4DD7-A29A-5D72BAC50403}" name="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1134,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:XFC88"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,16 +1500,16 @@
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="102.44140625" customWidth="1"/>
+    <col min="4" max="4" width="88" customWidth="1"/>
     <col min="5" max="5" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1163,1229 +1518,1859 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>266</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>336</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>334</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>333</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>123</v>
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>129</v>
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s">
-        <v>138</v>
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>175</v>
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="B66" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" t="s">
-        <v>190</v>
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>197</v>
+      <c r="A69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" t="s">
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s">
-        <v>199</v>
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>202</v>
+      <c r="A71" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" t="s">
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>201</v>
+      <c r="A72" t="s">
+        <v>171</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>206</v>
+      <c r="A74" t="s">
+        <v>178</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>212</v>
-      </c>
-      <c r="B75" t="s">
-        <v>214</v>
+      <c r="A75" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>213</v>
+      <c r="A76" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>216</v>
-      </c>
-      <c r="B77" t="s">
-        <v>217</v>
+      <c r="A77" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>220</v>
+        <v>188</v>
+      </c>
+      <c r="B78" t="s">
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>222</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>221</v>
+      <c r="A79" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" t="s">
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>227</v>
-      </c>
-      <c r="B82" t="s">
-        <v>226</v>
+      <c r="A82" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>229</v>
-      </c>
-      <c r="B83" t="s">
-        <v>228</v>
+      <c r="A83" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>211</v>
+      </c>
+      <c r="B87" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>214</v>
+      </c>
+      <c r="B88" t="s">
+        <v>213</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>216</v>
+      </c>
+      <c r="B89" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" t="s">
+        <v>222</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>233</v>
+      </c>
+      <c r="B93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" t="s">
+        <v>230</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>238</v>
+      </c>
+      <c r="B95" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>241</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B97" t="s">
         <v>240</v>
       </c>
-      <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
         <v>244</v>
       </c>
-      <c r="B88" t="s">
-        <v>245</v>
-      </c>
-      <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>119</v>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>246</v>
+      </c>
+      <c r="B100" t="s">
+        <v>247</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>250</v>
+      </c>
+      <c r="B101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>252</v>
+      </c>
+      <c r="B102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>253</v>
+      </c>
+      <c r="B103" t="s">
+        <v>254</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>256</v>
+      </c>
+      <c r="B104" t="s">
+        <v>255</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>257</v>
+      </c>
+      <c r="B105" t="s">
+        <v>260</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>258</v>
+      </c>
+      <c r="B106" t="s">
+        <v>259</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>262</v>
+      </c>
+      <c r="B107" t="s">
+        <v>263</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>264</v>
+      </c>
+      <c r="B108" t="s">
+        <v>265</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>278</v>
+      </c>
+      <c r="B109" t="s">
+        <v>281</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>279</v>
+      </c>
+      <c r="B110" t="s">
+        <v>282</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>283</v>
+      </c>
+      <c r="B111" t="s">
+        <v>284</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>287</v>
+      </c>
+      <c r="B112" t="s">
+        <v>286</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>289</v>
+      </c>
+      <c r="B113" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>290</v>
+      </c>
+      <c r="B114" t="s">
+        <v>292</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>291</v>
+      </c>
+      <c r="B115" t="s">
+        <v>293</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>296</v>
+      </c>
+      <c r="B116" t="s">
+        <v>295</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>298</v>
+      </c>
+      <c r="B117" t="s">
+        <v>297</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>300</v>
+      </c>
+      <c r="B118" t="s">
+        <v>299</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>303</v>
+      </c>
+      <c r="B119" t="s">
+        <v>302</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>305</v>
+      </c>
+      <c r="B120" t="s">
+        <v>306</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>314</v>
+      </c>
+      <c r="B121" t="s">
+        <v>315</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>318</v>
+      </c>
+      <c r="B122" t="s">
+        <v>316</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>319</v>
+      </c>
+      <c r="B123" t="s">
+        <v>317</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>314</v>
+      </c>
+      <c r="B124" t="s">
+        <v>322</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>324</v>
+      </c>
+      <c r="B125" t="s">
+        <v>323</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>325</v>
+      </c>
+      <c r="B126" t="s">
+        <v>326</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B127" t="s">
+        <v>345</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B128" t="s">
+        <v>347</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>350</v>
+      </c>
+      <c r="B129" t="s">
+        <v>353</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>350</v>
+      </c>
+      <c r="B130" t="s">
+        <v>352</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>355</v>
+      </c>
+      <c r="B131" t="s">
+        <v>356</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>360</v>
+      </c>
+      <c r="B132" t="s">
+        <v>359</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>363</v>
+      </c>
+      <c r="B133" t="s">
+        <v>362</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/ADCVD_SCRIPT/input_data/script/gui_map.xlsx
+++ b/ADCVD_SCRIPT/input_data/script/gui_map.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB69A475-CD37-4E1E-AA24-C4CE86C76E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51A0F58-106A-4D0F-BE78-14EB60634487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1056" windowWidth="21576" windowHeight="7380" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guiMap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="365">
   <si>
     <t>locator_type</t>
   </si>
@@ -385,9 +390,6 @@
     <t>nextButtonInvestigation</t>
   </si>
   <si>
-    <t>//span[contains(text(), 'Cancel')]/ancestor::button//following-sibling::button[1]/span[contains(text(), 'Next')]</t>
-  </si>
-  <si>
     <t>//th[contains(text(), 'Investigation Outcome')]/ancestor::table[1]//tbody[1]/tr/th//a[contains(text(), '--I-')]</t>
   </si>
   <si>
@@ -697,9 +699,6 @@
     <t>//legend[contains(text(),  '~val~')]</t>
   </si>
   <si>
-    <t>//label[text() = '~val~']/ancestor::div[1]/following-sibling::div[1]/span</t>
-  </si>
-  <si>
     <t>generic segment dates to validate</t>
   </si>
   <si>
@@ -748,9 +747,6 @@
     <t>created case</t>
   </si>
   <si>
-    <t>//div[@class='windowViewMode-normal oneContent active lafPageHost']//th[contains(text(), 'Petition Number')]//ancestor::thead[1]/following-sibling::tbody[1]/tr/th//a</t>
-  </si>
-  <si>
     <t>linkedADText</t>
   </si>
   <si>
@@ -820,9 +816,6 @@
     <t>genericLitigationField</t>
   </si>
   <si>
-    <t>//div[@class='forceChangeRecordTypeFooter']//button/span[contains(text(), 'Next')]</t>
-  </si>
-  <si>
     <t>//div[@class='test-id__record-layout-container riseTransitionEnabled']//span[text() = '~val~']/ancestor::label[1]/following-sibling::input[1]</t>
   </si>
   <si>
@@ -1105,13 +1098,28 @@
     <t>created newOrder link</t>
   </si>
   <si>
-    <t>//span[contains(text(), 'View All')]</t>
-  </si>
-  <si>
     <t>SegmentsViewAll</t>
   </si>
   <si>
     <t>segmentViewAll</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Petition')]//ancestor::div[1]//a[contains(text(), 'C-') or contains(text(), 'A-')]</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>//th[contains(text(), 'Petition Number')]//ancestor::thead[1]/following-sibling::tbody[1]/tr/th//a</t>
+  </si>
+  <si>
+    <t>//div[@class='forceChangeRecordTypeFooter']//button[2]</t>
+  </si>
+  <si>
+    <t>//label[contains(text() , '~val~')]/ancestor::div[1]/following-sibling::div[1]/span</t>
+  </si>
+  <si>
+    <t>//th[@title='Segment Number']/ancestor::section[@aria-expanded='true']//span[contains(text(), 'View All')]</t>
   </si>
 </sst>
 </file>
@@ -1213,14 +1221,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:E133" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E133" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:F133" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F133" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F64F45A6-3645-44FE-9479-6241357AB038}" name="field_name"/>
     <tableColumn id="2" xr3:uid="{C2DBC26B-6F8C-4783-ACA4-D8FD50DC9F57}" name="field_tag"/>
     <tableColumn id="3" xr3:uid="{C0187C03-8A32-45C6-B7DE-11B1D79A9A16}" name="locator_type"/>
     <tableColumn id="4" xr3:uid="{6C7265A4-0B5F-4E84-8068-60FB0C4EBB03}" name="locator_value"/>
     <tableColumn id="5" xr3:uid="{DDC74BAF-CCF0-4DD7-A29A-5D72BAC50403}" name="0"/>
+    <tableColumn id="6" xr3:uid="{C245EEFE-D2C1-4515-A575-B526973DF38E}" name="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1489,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1504,7 +1513,7 @@
     <col min="5" max="5" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1518,10 +1527,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1535,7 +1547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +1575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1577,7 +1589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1605,7 +1617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1619,7 +1631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1633,7 +1645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1648,7 +1660,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1673,10 +1685,10 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1687,10 +1699,10 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1704,21 +1716,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1757,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -1772,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1815,7 +1827,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1829,7 +1841,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1843,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1857,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1871,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1899,7 +1911,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1927,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1959,7 +1971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -1973,26 +1985,26 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2001,7 +2013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -2012,10 +2024,10 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -2029,7 +2041,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -2040,10 +2052,10 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -2057,7 +2069,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -2071,7 +2083,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -2085,7 +2097,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -2099,7 +2111,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -2109,11 +2121,14 @@
       <c r="C43" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>361</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -2127,7 +2142,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -2138,10 +2153,10 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -2155,7 +2170,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -2169,9 +2184,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
         <v>118</v>
@@ -2185,35 +2200,35 @@
     </row>
     <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
         <v>119</v>
@@ -2222,12 +2237,12 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s">
         <v>120</v>
@@ -2236,141 +2251,141 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" t="s">
         <v>125</v>
       </c>
-      <c r="B54" t="s">
-        <v>126</v>
-      </c>
       <c r="C54" t="s">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
         <v>165</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>166</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" t="s">
         <v>129</v>
       </c>
-      <c r="B56" t="s">
-        <v>130</v>
-      </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
         <v>131</v>
       </c>
-      <c r="B57" t="s">
-        <v>132</v>
-      </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" t="s">
         <v>133</v>
       </c>
-      <c r="B58" t="s">
-        <v>134</v>
-      </c>
       <c r="C58" t="s">
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2381,24 +2396,24 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2409,108 +2424,108 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" t="s">
         <v>161</v>
       </c>
-      <c r="B66" t="s">
-        <v>162</v>
-      </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" t="s">
         <v>163</v>
       </c>
-      <c r="B69" t="s">
-        <v>164</v>
-      </c>
       <c r="C69" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" t="s">
         <v>173</v>
       </c>
-      <c r="B71" t="s">
-        <v>174</v>
-      </c>
       <c r="C71" t="s">
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2521,24 +2536,24 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2549,24 +2564,24 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2577,24 +2592,24 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2605,66 +2620,66 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" t="s">
         <v>198</v>
       </c>
-      <c r="B81" t="s">
-        <v>199</v>
-      </c>
       <c r="C81" t="s">
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2675,24 +2690,24 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2703,94 +2718,94 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>225</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B88" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
         <v>223</v>
-      </c>
-      <c r="B91" t="s">
-        <v>222</v>
-      </c>
-      <c r="C91" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2801,220 +2816,220 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B94" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B95" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B97" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B99" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B100" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B102" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B103" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B104" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105" t="s">
         <v>257</v>
       </c>
-      <c r="B105" t="s">
-        <v>260</v>
-      </c>
       <c r="C105" t="s">
         <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B106" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B107" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3025,24 +3040,24 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B109" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B110" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3053,66 +3068,66 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B111" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B112" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>286</v>
+      </c>
+      <c r="B114" t="s">
+        <v>288</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
         <v>290</v>
-      </c>
-      <c r="B114" t="s">
-        <v>292</v>
-      </c>
-      <c r="C114" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B115" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3123,38 +3138,38 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B116" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B117" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B118" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3165,212 +3180,212 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B119" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B120" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B121" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B122" t="s">
+        <v>312</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
         <v>316</v>
-      </c>
-      <c r="C122" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B123" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B124" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B125" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
       </c>
       <c r="D125" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B126" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B127" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B128" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B129" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B130" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B131" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B132" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B133" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
